--- a/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15900</v>
+        <v>15800</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -951,7 +951,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15500</v>
+        <v>-15400</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-15600</v>
+        <v>-15500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15600</v>
+        <v>-15500</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5400</v>
+        <v>7000</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36900</v>
+        <v>-35100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4000</v>
+        <v>5600</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15000</v>
+        <v>-14900</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>AHI</t>
   </si>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -687,8 +687,8 @@
       <c r="D7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
+      <c r="E7" s="2">
+        <v>44377</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -714,8 +714,8 @@
       <c r="D8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>800</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -862,8 +862,8 @@
       <c r="D14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>1800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -889,8 +889,8 @@
       <c r="D15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-9600</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -993,8 +993,8 @@
       <c r="D20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>-200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-15600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9800</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1047,8 +1047,8 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
+        <v>-15600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9800</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1101,8 +1101,8 @@
       <c r="D24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>-500</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9300</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1317,8 +1317,8 @@
       <c r="D32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1430,8 +1430,8 @@
       <c r="D38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
+      <c r="E38" s="2">
+        <v>44377</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35100</v>
+        <v>-35200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2445,8 +2445,8 @@
       <c r="D80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
+      <c r="E80" s="2">
+        <v>44377</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>AHI</t>
   </si>
@@ -863,7 +863,7 @@
         <v>2700</v>
       </c>
       <c r="E14" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15900</v>
+        <v>15500</v>
       </c>
       <c r="E17" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15500</v>
+        <v>-15100</v>
       </c>
       <c r="E18" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="E21" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="E26" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="E27" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="E33" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="E35" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35200</v>
+        <v>-34500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="E81" s="3">
-        <v>-9300</v>
+        <v>-9100</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2527,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,8 +2671,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-6500</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2711,8 +2711,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2792,8 +2792,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2200</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2940,8 +2940,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>11300</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2985,8 +2985,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,8 +2994,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>2500</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AHI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>AHI</t>
   </si>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
         <v>1700</v>
@@ -954,7 +954,7 @@
         <v>-15100</v>
       </c>
       <c r="E18" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15300</v>
+        <v>-15200</v>
       </c>
       <c r="E23" s="3">
         <v>-9600</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="E26" s="3">
         <v>-9100</v>
@@ -1180,7 +1180,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="E27" s="3">
         <v>-9100</v>
@@ -1342,7 +1342,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="E33" s="3">
         <v>-9100</v>
@@ -1396,7 +1396,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="E35" s="3">
         <v>-9100</v>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="E81" s="3">
         <v>-9100</v>
@@ -2527,8 +2527,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,8 +2671,8 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-6400</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2711,8 +2711,8 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2792,8 +2792,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-2200</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2940,8 +2940,8 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>11100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2985,8 +2985,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,8 +2994,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>2500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
